--- a/results/Preliminaries-Greece.xlsx
+++ b/results/Preliminaries-Greece.xlsx
@@ -60,52 +60,52 @@
     <t>2019</t>
   </si>
   <si>
-    <t>KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND </t>
-  </si>
-  <si>
-    <t>PAS</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>DIK</t>
-  </si>
-  <si>
-    <t>SYN</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP </t>
-  </si>
-  <si>
-    <t>EL,</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>MeR</t>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)</t>
+  </si>
+  <si>
+    <t>SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)</t>
+  </si>
+  <si>
+    <t>TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change</t>
+  </si>
+  <si>
+    <t>MeRA25 - European Realistic Disobedience Front</t>
   </si>
   <si>
     <t>Key</t>
@@ -141,1231 +141,1231 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t xml:space="preserve">KKE+ND </t>
-  </si>
-  <si>
-    <t>KKE+PAS</t>
-  </si>
-  <si>
-    <t>KKE+POL</t>
-  </si>
-  <si>
-    <t>ND +PAS</t>
-  </si>
-  <si>
-    <t>ND +POL</t>
-  </si>
-  <si>
-    <t>PAS+POL</t>
-  </si>
-  <si>
-    <t>KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>KKE+ND +POL</t>
-  </si>
-  <si>
-    <t>KKE+PAS+POL</t>
-  </si>
-  <si>
-    <t>ND +PAS+POL</t>
-  </si>
-  <si>
-    <t>KKE+ND +PAS+POL</t>
-  </si>
-  <si>
-    <t>DIK+KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+ND </t>
-  </si>
-  <si>
-    <t>DIK+PAS</t>
-  </si>
-  <si>
-    <t>DIK+SYN</t>
-  </si>
-  <si>
-    <t>KKE+SYN</t>
-  </si>
-  <si>
-    <t>ND +SYN</t>
-  </si>
-  <si>
-    <t>PAS+SYN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIK+KKE+ND </t>
-  </si>
-  <si>
-    <t>DIK+KKE+PAS</t>
-  </si>
-  <si>
-    <t>DIK+KKE+SYN</t>
-  </si>
-  <si>
-    <t>DIK+ND +PAS</t>
-  </si>
-  <si>
-    <t>DIK+ND +SYN</t>
-  </si>
-  <si>
-    <t>DIK+PAS+SYN</t>
-  </si>
-  <si>
-    <t>KKE+ND +SYN</t>
-  </si>
-  <si>
-    <t>KKE+PAS+SYN</t>
-  </si>
-  <si>
-    <t>ND +PAS+SYN</t>
-  </si>
-  <si>
-    <t>DIK+KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>DIK+KKE+ND +SYN</t>
-  </si>
-  <si>
-    <t>DIK+KKE+PAS+SYN</t>
-  </si>
-  <si>
-    <t>DIK+ND +PAS+SYN</t>
-  </si>
-  <si>
-    <t>KKE+ND +PAS+SYN</t>
-  </si>
-  <si>
-    <t>DIK+KKE+ND +PAS+SYN</t>
-  </si>
-  <si>
-    <t>KKE+SYR</t>
-  </si>
-  <si>
-    <t>ND +SYR</t>
-  </si>
-  <si>
-    <t>PAS+SYR</t>
-  </si>
-  <si>
-    <t>KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>KKE+LAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAO+ND </t>
-  </si>
-  <si>
-    <t>LAO+PAS</t>
-  </si>
-  <si>
-    <t>LAO+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+LAO+ND </t>
-  </si>
-  <si>
-    <t>KKE+LAO+PAS</t>
-  </si>
-  <si>
-    <t>KKE+LAO+SYR</t>
-  </si>
-  <si>
-    <t>LAO+ND +PAS</t>
-  </si>
-  <si>
-    <t>LAO+ND +SYR</t>
-  </si>
-  <si>
-    <t>LAO+PAS+SYR</t>
-  </si>
-  <si>
-    <t>KKE+LAO+ND +PAS</t>
-  </si>
-  <si>
-    <t>KKE+LAO+ND +SYR</t>
-  </si>
-  <si>
-    <t>KKE+LAO+PAS+SYR</t>
-  </si>
-  <si>
-    <t>LAO+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>KKE+LAO+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA </t>
-  </si>
-  <si>
-    <t>ANE+KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+ND </t>
-  </si>
-  <si>
-    <t>ANE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM+HA </t>
-  </si>
-  <si>
-    <t>DIM+KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM+ND </t>
-  </si>
-  <si>
-    <t>DIM+PAS</t>
-  </si>
-  <si>
-    <t>DIM+SYR</t>
-  </si>
-  <si>
-    <t>HA +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +ND </t>
-  </si>
-  <si>
-    <t>HA +PAS</t>
-  </si>
-  <si>
-    <t>HA +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+DIM+HA </t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+DIM+ND </t>
-  </si>
-  <si>
-    <t>ANE+DIM+PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +ND </t>
-  </si>
-  <si>
-    <t>ANE+HA +PAS</t>
-  </si>
-  <si>
-    <t>ANE+HA +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+ND </t>
-  </si>
-  <si>
-    <t>ANE+KKE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+KKE+SYR</t>
-  </si>
-  <si>
-    <t>ANE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM+HA +ND </t>
-  </si>
-  <si>
-    <t>DIM+HA +PAS</t>
-  </si>
-  <si>
-    <t>DIM+HA +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM+KKE+ND </t>
-  </si>
-  <si>
-    <t>DIM+KKE+PAS</t>
-  </si>
-  <si>
-    <t>DIM+KKE+SYR</t>
-  </si>
-  <si>
-    <t>DIM+ND +PAS</t>
-  </si>
-  <si>
-    <t>DIM+ND +SYR</t>
-  </si>
-  <si>
-    <t>DIM+PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+ND </t>
-  </si>
-  <si>
-    <t>HA +KKE+PAS</t>
-  </si>
-  <si>
-    <t>HA +KKE+SYR</t>
-  </si>
-  <si>
-    <t>HA +ND +PAS</t>
-  </si>
-  <si>
-    <t>HA +ND +SYR</t>
-  </si>
-  <si>
-    <t>HA +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+DIM+HA +ND </t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+DIM+KKE+ND </t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+ND </t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE+SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+HA +ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM+HA +KKE+ND </t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE+PAS</t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE+SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +ND +PAS</t>
-  </si>
-  <si>
-    <t>DIM+HA +ND +SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>DIM+KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>DIM+KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>HA +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>HA +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>HA +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>HA +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+DIM+HA +KKE+ND </t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>HA +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+HA +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>DIM+HA +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t>ANE+DIM+HA +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA </t>
-  </si>
-  <si>
-    <t>EK +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +ND </t>
-  </si>
-  <si>
-    <t>EK +PAS</t>
-  </si>
-  <si>
-    <t>EK +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA </t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +ND </t>
-  </si>
-  <si>
-    <t>ANE+EK +PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +HA +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +ND </t>
-  </si>
-  <si>
-    <t>EK +HA +PAS</t>
-  </si>
-  <si>
-    <t>EK +HA +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+ND </t>
-  </si>
-  <si>
-    <t>EK +KKE+PAS</t>
-  </si>
-  <si>
-    <t>EK +KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+TP </t>
-  </si>
-  <si>
-    <t>EK +ND +PAS</t>
-  </si>
-  <si>
-    <t>EK +ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +ND +TP </t>
-  </si>
-  <si>
-    <t>EK +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +ND </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+ND </t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +ND +TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+ND </t>
-  </si>
-  <si>
-    <t>EK +HA +KKE+PAS</t>
-  </si>
-  <si>
-    <t>EK +HA +KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+TP </t>
-  </si>
-  <si>
-    <t>EK +HA +ND +PAS</t>
-  </si>
-  <si>
-    <t>EK +HA +ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +ND +TP </t>
-  </si>
-  <si>
-    <t>EK +HA +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>EK +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+ND +TP </t>
-  </si>
-  <si>
-    <t>EK +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+ND </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE+PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +ND +TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+ND +TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+ND +TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +HA +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>EK +HA +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+ND +TP </t>
-  </si>
-  <si>
-    <t>EK +HA +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +HA +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE+ND +PAS</t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+ND +TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE+PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>EK +HA +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA +KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>ANE+EK +HA +KKE+ND +PAS+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+ND +PAS+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+ND +SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+HA +KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK +HA +KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE+EK +HA +KKE+ND +PAS+SYR+TP </t>
-  </si>
-  <si>
-    <t>EL,+KIN</t>
-  </si>
-  <si>
-    <t>EL,+KKE</t>
-  </si>
-  <si>
-    <t>EL,+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+ND </t>
-  </si>
-  <si>
-    <t>EL,+SYR</t>
-  </si>
-  <si>
-    <t>KIN+KKE</t>
-  </si>
-  <si>
-    <t>KIN+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIN+ND </t>
-  </si>
-  <si>
-    <t>KIN+SYR</t>
-  </si>
-  <si>
-    <t>KKE+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeR+ND </t>
-  </si>
-  <si>
-    <t>MeR+SYR</t>
-  </si>
-  <si>
-    <t>EL,+KIN+KKE</t>
-  </si>
-  <si>
-    <t>EL,+KIN+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+KIN+ND </t>
-  </si>
-  <si>
-    <t>EL,+KIN+SYR</t>
-  </si>
-  <si>
-    <t>EL,+KKE+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+KKE+ND </t>
-  </si>
-  <si>
-    <t>EL,+KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+MeR+ND </t>
-  </si>
-  <si>
-    <t>EL,+MeR+SYR</t>
-  </si>
-  <si>
-    <t>EL,+ND +SYR</t>
-  </si>
-  <si>
-    <t>KIN+KKE+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIN+KKE+ND </t>
-  </si>
-  <si>
-    <t>KIN+KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIN+MeR+ND </t>
-  </si>
-  <si>
-    <t>KIN+MeR+SYR</t>
-  </si>
-  <si>
-    <t>KIN+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKE+MeR+ND </t>
-  </si>
-  <si>
-    <t>KKE+MeR+SYR</t>
-  </si>
-  <si>
-    <t>MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t>EL,+KIN+KKE+MeR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+KIN+KKE+ND </t>
-  </si>
-  <si>
-    <t>EL,+KIN+KKE+SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+KIN+MeR+ND </t>
-  </si>
-  <si>
-    <t>EL,+KIN+MeR+SYR</t>
-  </si>
-  <si>
-    <t>EL,+KIN+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+KKE+MeR+ND </t>
-  </si>
-  <si>
-    <t>EL,+KKE+MeR+SYR</t>
-  </si>
-  <si>
-    <t>EL,+KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>EL,+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIN+KKE+MeR+ND </t>
-  </si>
-  <si>
-    <t>KIN+KKE+MeR+SYR</t>
-  </si>
-  <si>
-    <t>KIN+KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>KIN+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t>KKE+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL,+KIN+KKE+MeR+ND </t>
-  </si>
-  <si>
-    <t>EL,+KIN+KKE+MeR+SYR</t>
-  </si>
-  <si>
-    <t>EL,+KIN+KKE+ND +SYR</t>
-  </si>
-  <si>
-    <t>EL,+KIN+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t>EL,+KKE+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t>KIN+KKE+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t>EL,+KIN+KKE+MeR+ND +SYR</t>
-  </si>
-  <si>
-    <t>('ANE+DIM+HA +KKE+ND +PAS+SYR', '')</t>
-  </si>
-  <si>
-    <t>('ANE+EK +HA +KKE+ND +PAS+SYR+TP ', '')</t>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+ND - New Democracy  (Nea Dimokratia, ND)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)+KINAL - Movement for Change+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+MeRA25 - European Realistic Disobedience Front+ND - New Democracy  (Nea Dimokratia, ND)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>('ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)', '')</t>
+  </si>
+  <si>
+    <t>('ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)+EK - Union of Centrists (Enosi Kentroon, EK)+HA - Golden Dawn (Chrysi Avgi, HA)+KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)+ND - New Democracy  (Nea Dimokratia, ND)+PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)+SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)+TP - The River (To Potami , TP)', '')</t>
   </si>
 </sst>
 </file>
